--- a/test/templates/TemplateWithXmlEntity.xlsx
+++ b/test/templates/TemplateWithXmlEntity.xlsx
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
-    <t>{{AccountName__c}}（以下、甲という。）と　株式会社サンプル（以下、乙という。）は、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下記条件にて雇用契約を締結する。</t>
     <rPh sb="6" eb="8">
       <t>コヨウ</t>
@@ -79,42 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">{{StartDateFormat__c}} 〜 {{EndDateFormat__c}}  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{Address__c}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{{JobDescription__c}} </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{{StartTime__c}} 〜 {{EndTime__c}}  </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{{hasOverTime__c}} </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{{HoliDayType__c}} </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本給(月)　{{Salary__c}}万円</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{{DueDate__c}} </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{{SalaryDate__c}} </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下記に記名押印し、甲乙それぞれ１通づつ保管する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,16 +95,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{{AccountName__c}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{{AccountAddress__c}}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;&gt;"\&amp;'</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{{AccountName__c}}}（以下、甲という。）と　株式会社サンプル（以下、乙という。）は、</t>
+  </si>
+  <si>
+    <t>{{{AccountName__c}}}</t>
+  </si>
+  <si>
+    <t>{{{AccountAddress__c}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{StartDateFormat__c}}} 〜 {{{EndDateFormat__c}}}  </t>
+  </si>
+  <si>
+    <t>{{{Address__c}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{JobDescription__c}}} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{StartTime__c}}} 〜 {{{EndTime__c}}}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{hasOverTime__c}}} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{HoliDayType__c}}} </t>
+  </si>
+  <si>
+    <t>基本給(月)　{{{Salary__c}}}万円</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{DueDate__c}}} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{{SalaryDate__c}}} </t>
   </si>
 </sst>
 </file>
@@ -913,9 +901,7 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -943,7 +929,7 @@
     <row r="2" spans="1:8" ht="25">
       <c r="A2" s="2"/>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -965,7 +951,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -977,7 +963,7 @@
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -999,10 +985,10 @@
     <row r="7" spans="1:8" ht="28" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1013,10 +999,10 @@
     <row r="8" spans="1:8" ht="28" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -1047,10 +1033,10 @@
     <row r="11" spans="1:8" ht="28" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1061,10 +1047,10 @@
     <row r="12" spans="1:8" ht="28" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -1075,10 +1061,10 @@
     <row r="13" spans="1:8" ht="28" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -1089,10 +1075,10 @@
     <row r="14" spans="1:8" ht="28" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -1103,10 +1089,10 @@
     <row r="15" spans="1:8" ht="28" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -1117,10 +1103,10 @@
     <row r="16" spans="1:8" ht="28" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1131,10 +1117,10 @@
     <row r="17" spans="1:8" ht="28" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1145,10 +1131,10 @@
     <row r="18" spans="1:8" ht="28" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -1159,10 +1145,10 @@
     <row r="19" spans="1:8" ht="28" customHeight="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -1183,7 +1169,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1205,17 +1191,17 @@
     <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1233,13 +1219,13 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8">
